--- a/artfynd/A 9538-2024 artfynd.xlsx
+++ b/artfynd/A 9538-2024 artfynd.xlsx
@@ -10171,7 +10171,7 @@
         <v>130918991</v>
       </c>
       <c r="B86" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>

--- a/artfynd/A 9538-2024 artfynd.xlsx
+++ b/artfynd/A 9538-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY86"/>
+  <dimension ref="A1:AY87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10290,6 +10290,118 @@
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>131069884</v>
+      </c>
+      <c r="B87" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Ersboda , Ersboda , Srm</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>654643</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6565989</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Salem</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Salem</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Ulla Sebestyen</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Ulla Sebestyen, Jan-Erik Sebestyén</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
